--- a/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
+++ b/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="223">
   <si>
     <t>down</t>
   </si>
@@ -1816,11 +1816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E362" sqref="E362"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,10 +7478,1340 @@
       <c r="A363" s="7">
         <v>42705</v>
       </c>
+      <c r="B363">
+        <v>0.04</v>
+      </c>
+      <c r="C363">
+        <v>0.01</v>
+      </c>
+      <c r="D363">
+        <v>0.01</v>
+      </c>
+      <c r="E363">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>42706</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="7">
+        <v>42707</v>
+      </c>
+      <c r="B365" t="s">
+        <v>221</v>
+      </c>
+      <c r="C365" t="s">
+        <v>221</v>
+      </c>
+      <c r="D365" t="s">
+        <v>221</v>
+      </c>
+      <c r="E365" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="7">
+        <v>42708</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="7">
+        <v>42709</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="7">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="7">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="7">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="7">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="7">
+        <v>42714</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>42715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="7">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="7">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="7">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="7">
+        <v>42722</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="7">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="7">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="7">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="7">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="7">
+        <v>42728</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="7">
+        <v>42729</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="7">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="7">
+        <v>42731</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="7">
+        <v>42732</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="7">
+        <v>42733</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="7">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="7">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="7">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="7">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="7">
+        <v>42739</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="7">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="7">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="7">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="7">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="7">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="7">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="7">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="7">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="7">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="7">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="7">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="7">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="7">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="7">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="7">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="7">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="7">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="7">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="7">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="7">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="7">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="7">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="7">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="7">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="7">
+        <v>42765</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="7">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="7">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="7">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="7">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="7">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="7">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="7">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="7">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="7">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="7">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="7">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="7">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="7">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="7">
+        <v>42779</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="7">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="7">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="7">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="7">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="7">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="7">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="7">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="7">
+        <v>42787</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="7">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="7">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="7">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="7">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="7">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="7">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="7">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="7">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="7">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="7">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="7">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="7">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="7">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="7">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="7">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="7">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="7">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="7">
+        <v>42805</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="7">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="7">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="7">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="7">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="7">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="7">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="7">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="7">
+        <v>42815</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="7">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="7">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="7">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="7">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="7">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="7">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="7">
+        <v>42822</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="7">
+        <v>42823</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="7">
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="7">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="7">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="7">
+        <v>42827</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="7">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="7">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="7">
+        <v>42830</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="7">
+        <v>42831</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="7">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="7">
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="7">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="7">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="7">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="7">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="7">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="7">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="7">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="7">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="7">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="7">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="7">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="7">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="7">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="7">
+        <v>42847</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="7">
+        <v>42848</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="7">
+        <v>42849</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="7">
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="7">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="7">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="7">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="7">
+        <v>42854</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="7">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="7">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="7">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="7">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="7">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="7">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="7">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="7">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="7">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="7">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="7">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="7">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="7">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="7">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="7">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="7">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="7">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="7">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="7">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="7">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="7">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="7">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="7">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="7">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="7">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="7">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="7">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="7">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="7">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="7">
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="7">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="7">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="7">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="7">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="7">
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="7">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="7">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="7">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="7">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="7">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="7">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="7">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="7">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="7">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="7">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="7">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="7">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="7">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="7">
+        <v>42903</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="7">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="7">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="7">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="7">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="7">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="7">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="7">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="7">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="7">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="7">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="7">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="7">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="7">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="7">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="7">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="7">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="7">
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="7">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="7">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="7">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="7">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="7">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="7">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="7">
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="7">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="7">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="7">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="7">
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="7">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="7">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="7">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="7">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="7">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="7">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="7">
+        <v>42938</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="7">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="7">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="7">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="7">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="7">
+        <v>42943</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="7">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="7">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="7">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="7">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="7">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="7">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="7">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="7">
+        <v>42952</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="7">
+        <v>42953</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="7">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="7">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="7">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="7">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="7">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="7">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="7">
+        <v>42960</v>
       </c>
     </row>
   </sheetData>
@@ -7501,7 +8831,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M337" sqref="M337"/>
+      <selection pane="bottomRight" activeCell="N344" sqref="N344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21654,67 +22984,262 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>42705</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>8.52</v>
+      </c>
+      <c r="C337">
+        <v>158</v>
+      </c>
+      <c r="D337">
+        <v>1.4</v>
+      </c>
+      <c r="E337" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F337" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G337">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H337">
+        <v>138</v>
+      </c>
+      <c r="I337" t="s">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>1.58</v>
+      </c>
+      <c r="K337">
+        <v>5.26</v>
+      </c>
+      <c r="L337" s="20">
+        <v>47</v>
+      </c>
+      <c r="M337" s="20">
+        <v>23.91</v>
+      </c>
+      <c r="N337" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>42706</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>8.48</v>
+      </c>
+      <c r="C338">
+        <v>148</v>
+      </c>
+      <c r="D338">
+        <v>1.35</v>
+      </c>
+      <c r="E338" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F338" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="G338">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H338">
+        <v>117</v>
+      </c>
+      <c r="I338" t="s">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>1.51</v>
+      </c>
+      <c r="K338">
+        <v>5.16</v>
+      </c>
+      <c r="L338" s="20">
+        <v>39</v>
+      </c>
+      <c r="M338" s="20">
+        <v>23.86</v>
+      </c>
+      <c r="N338" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>42707</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C339">
+        <v>139</v>
+      </c>
+      <c r="D339">
+        <v>1.3</v>
+      </c>
+      <c r="E339" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F339" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="G339">
+        <v>4.71</v>
+      </c>
+      <c r="H339">
+        <v>103</v>
+      </c>
+      <c r="I339" t="s">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1.46</v>
+      </c>
+      <c r="K339">
+        <v>5.09</v>
+      </c>
+      <c r="L339" s="20">
+        <v>35</v>
+      </c>
+      <c r="M339" s="20">
+        <v>23.82</v>
+      </c>
+      <c r="N339" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>42708</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>8.44</v>
+      </c>
+      <c r="C340">
+        <v>137</v>
+      </c>
+      <c r="D340">
+        <v>1.26</v>
+      </c>
+      <c r="E340" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F340" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="G340">
+        <v>4.66</v>
+      </c>
+      <c r="H340">
+        <v>92</v>
+      </c>
+      <c r="I340" t="s">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>1.42</v>
+      </c>
+      <c r="K340">
+        <v>5.04</v>
+      </c>
+      <c r="L340" s="20">
+        <v>32</v>
+      </c>
+      <c r="M340" s="20">
+        <v>23.8</v>
+      </c>
+      <c r="N340" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>42709</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>8.42</v>
+      </c>
+      <c r="C341">
+        <v>132</v>
+      </c>
+      <c r="D341">
+        <v>1.23</v>
+      </c>
+      <c r="E341" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F341" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G341">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H341">
+        <v>81</v>
+      </c>
+      <c r="I341" t="s">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>1.4</v>
+      </c>
+      <c r="K341">
+        <v>5</v>
+      </c>
+      <c r="L341" s="20">
+        <v>30</v>
+      </c>
+      <c r="M341" s="20">
+        <v>23.78</v>
+      </c>
+      <c r="N341" s="20">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>42710</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>42711</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>42712</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>42713</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>42714</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>42715</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>42716</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>42717</v>
       </c>

--- a/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
+++ b/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Coho\Weather &amp; flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcclary\Documents\GitHub\SpawnerSurvey\Surveyability_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,45 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="223">
   <si>
     <t>down</t>
-  </si>
-  <si>
-    <t>SAN CFS</t>
-  </si>
-  <si>
-    <t>SAN Stage (ft.)</t>
-  </si>
-  <si>
-    <t>MAA CFS</t>
-  </si>
-  <si>
-    <t>WIL-3rdBridge (ft.)</t>
-  </si>
-  <si>
-    <t>MAR-ChristmasTree (in.)</t>
-  </si>
-  <si>
-    <t>AUS-CAZ CFS</t>
-  </si>
-  <si>
-    <t>AUS-CAZ Stage (ft.)</t>
-  </si>
-  <si>
-    <t>FEL (in.)</t>
-  </si>
-  <si>
-    <t>MIL-Puccioni (in.)</t>
-  </si>
-  <si>
-    <t>MIL-School (ft.)</t>
-  </si>
-  <si>
-    <t>DRY-LAM CFS</t>
-  </si>
-  <si>
-    <t>DRY-LAM Stage (ft.)</t>
   </si>
   <si>
     <t>DATE</t>
@@ -698,7 +662,43 @@
     <t>Down</t>
   </si>
   <si>
-    <t>MAA Stage (ft.)5.3553</t>
+    <t>LambertBridge.ft</t>
+  </si>
+  <si>
+    <t>LambertBridge.CFS</t>
+  </si>
+  <si>
+    <t>Mill.Puccioni.in</t>
+  </si>
+  <si>
+    <t>Mill.School.ft</t>
+  </si>
+  <si>
+    <t>Felta.in</t>
+  </si>
+  <si>
+    <t>Austin.ft</t>
+  </si>
+  <si>
+    <t>Austin.CFS</t>
+  </si>
+  <si>
+    <t>Mar14.in</t>
+  </si>
+  <si>
+    <t>Wil3.ft</t>
+  </si>
+  <si>
+    <t>Maacama.ft</t>
+  </si>
+  <si>
+    <t>Maacama.CFS</t>
+  </si>
+  <si>
+    <t>SantaRosa.ft</t>
+  </si>
+  <si>
+    <t>SantaRosa.CFS</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F4:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
@@ -1819,8 +1819,8 @@
   <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,22 +1840,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>0.01</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G5" s="14"/>
     </row>
@@ -1938,7 +1938,7 @@
         <v>0.72</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G6" s="14">
         <v>0.98142857142857132</v>
@@ -1958,7 +1958,7 @@
         <v>0.32</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G7" s="14">
         <v>0.73000000000000009</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G8" s="14">
         <v>0.81142857142857139</v>
@@ -1998,7 +1998,7 @@
         <v>0.32</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G9" s="14">
         <v>5.1428571428571428E-2</v>
@@ -2015,10 +2015,10 @@
         <v>0.69</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G10" s="14">
         <v>1.4042857142857144</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G11" s="14">
         <v>0.78142857142857136</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G12" s="14">
         <v>1.5428571428571429</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="14">
         <v>0.19999999999999998</v>
@@ -2098,7 +2098,7 @@
         <v>0.04</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>1.65</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>0.08</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>0.08</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D53">
         <v>0.04</v>
@@ -2969,7 +2969,7 @@
         <v>0.63</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>0.21</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>0.72</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="D326" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E326">
         <v>0.83</v>
@@ -6867,16 +6867,16 @@
         <v>42669</v>
       </c>
       <c r="B327" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C327" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D327" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E327" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>0.34</v>
       </c>
       <c r="E355" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,7 +7403,7 @@
         <v>0.03</v>
       </c>
       <c r="E358" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7513,16 +7513,16 @@
         <v>42707</v>
       </c>
       <c r="B365" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C365" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D365" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E365" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -7563,83 +7563,107 @@
       <c r="A368" s="7">
         <v>42710</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368" t="s">
+        <v>208</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>42711</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>42712</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>42713</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>42714</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>42715</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>42716</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>42717</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>42718</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>42719</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>42720</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>42721</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>42722</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>42723</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>42724</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>42725</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>42726</v>
       </c>
@@ -8828,17 +8852,17 @@
   <dimension ref="A1:N349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N344" sqref="N344"/>
+      <selection pane="bottomRight" activeCell="E347" sqref="E347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -8847,52 +8871,53 @@
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -22508,7 +22533,7 @@
         <v>8.86</v>
       </c>
       <c r="C326" s="26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D326">
         <v>2.31</v>
@@ -22552,7 +22577,7 @@
         <v>8.75</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D327">
         <v>1.84</v>
@@ -22816,7 +22841,7 @@
         <v>8.89</v>
       </c>
       <c r="C333" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D333">
         <v>1.85</v>
@@ -22860,7 +22885,7 @@
         <v>8.75</v>
       </c>
       <c r="C334" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D334">
         <v>1.69</v>
@@ -23208,10 +23233,88 @@
       <c r="A342" s="1">
         <v>42710</v>
       </c>
+      <c r="B342">
+        <v>8.41</v>
+      </c>
+      <c r="C342">
+        <v>130</v>
+      </c>
+      <c r="D342">
+        <v>1.19</v>
+      </c>
+      <c r="E342" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F342" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="G342">
+        <v>4.57</v>
+      </c>
+      <c r="H342">
+        <v>74</v>
+      </c>
+      <c r="I342" t="s">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1.37</v>
+      </c>
+      <c r="K342">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="L342" s="20">
+        <v>26</v>
+      </c>
+      <c r="M342" s="20">
+        <v>23.75</v>
+      </c>
+      <c r="N342" s="20">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>42711</v>
+      </c>
+      <c r="B343">
+        <v>8.39</v>
+      </c>
+      <c r="C343">
+        <v>126</v>
+      </c>
+      <c r="D343">
+        <v>1.17</v>
+      </c>
+      <c r="E343" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F343" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="G343">
+        <v>4.54</v>
+      </c>
+      <c r="H343">
+        <v>68</v>
+      </c>
+      <c r="I343" t="s">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>1.35</v>
+      </c>
+      <c r="K343">
+        <v>4.91</v>
+      </c>
+      <c r="L343" s="20">
+        <v>25</v>
+      </c>
+      <c r="M343" s="20">
+        <v>23.74</v>
+      </c>
+      <c r="N343" s="20">
+        <v>7.9</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -23286,25 +23389,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -23315,15 +23418,15 @@
         <v>0.46875</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -23334,15 +23437,15 @@
         <v>0.41508101851851853</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -23353,13 +23456,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -23370,13 +23473,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -23387,13 +23490,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -23404,13 +23507,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -23421,16 +23524,16 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -23441,16 +23544,16 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23461,16 +23564,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23481,16 +23584,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23501,16 +23604,16 @@
         <v>0.5625</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23519,16 +23622,16 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23537,13 +23640,13 @@
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23552,13 +23655,13 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -23566,14 +23669,14 @@
         <v>42395</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -23581,14 +23684,14 @@
         <v>42395</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -23596,17 +23699,17 @@
         <v>42446</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -23614,17 +23717,17 @@
         <v>42446</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -23632,17 +23735,17 @@
         <v>42446</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -23650,17 +23753,17 @@
         <v>42452</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -23668,14 +23771,14 @@
         <v>42453</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -23683,14 +23786,14 @@
         <v>42457</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -23698,14 +23801,14 @@
         <v>42459</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -23716,14 +23819,14 @@
         <v>0.375</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -23734,14 +23837,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -23749,19 +23852,19 @@
         <v>42488</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -23769,19 +23872,19 @@
         <v>42488</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -23792,16 +23895,16 @@
         <v>0.375</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -23812,16 +23915,16 @@
         <v>0.8125</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -23832,19 +23935,19 @@
         <v>0.5625</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -23855,19 +23958,19 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -23878,19 +23981,19 @@
         <v>0.4375</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -23901,19 +24004,19 @@
         <v>0.5625</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -23921,17 +24024,17 @@
         <v>42499</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -23939,19 +24042,19 @@
         <v>42508</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -23959,19 +24062,19 @@
         <v>42508</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -23979,19 +24082,19 @@
         <v>42508</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -23999,19 +24102,19 @@
         <v>42509</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -24019,19 +24122,19 @@
         <v>42510</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -24039,19 +24142,19 @@
         <v>42516</v>
       </c>
       <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -24059,19 +24162,19 @@
         <v>42521</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -24079,19 +24182,19 @@
         <v>42521</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -24099,19 +24202,19 @@
         <v>42523</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -24119,16 +24222,16 @@
         <v>42525</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -24136,16 +24239,16 @@
         <v>42528</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -24153,17 +24256,17 @@
         <v>42536</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -24171,17 +24274,17 @@
         <v>42537</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -24189,17 +24292,17 @@
         <v>42536</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -24207,16 +24310,16 @@
         <v>42537</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -24224,19 +24327,19 @@
         <v>42541</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -24244,19 +24347,19 @@
         <v>42542</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -24264,19 +24367,19 @@
         <v>42552</v>
       </c>
       <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -24284,19 +24387,19 @@
         <v>42619</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -24304,19 +24407,19 @@
         <v>42660</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -24324,19 +24427,19 @@
         <v>42660</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -24344,19 +24447,19 @@
         <v>42660</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -24364,19 +24467,19 @@
         <v>42660</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -24384,19 +24487,19 @@
         <v>42660</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -24404,19 +24507,19 @@
         <v>42661</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -24424,19 +24527,19 @@
         <v>42662</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -24444,16 +24547,16 @@
         <v>42663</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -24461,19 +24564,19 @@
         <v>42664</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -24481,19 +24584,19 @@
         <v>42665</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -24501,16 +24604,16 @@
         <v>42666</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -24541,37 +24644,37 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -24579,31 +24682,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -24611,25 +24714,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -24637,28 +24740,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
@@ -24671,25 +24774,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="34"/>
@@ -24703,28 +24806,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
@@ -24737,28 +24840,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
@@ -24771,28 +24874,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
@@ -24805,25 +24908,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="37"/>
@@ -24837,25 +24940,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -24863,25 +24966,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -24889,31 +24992,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -24921,25 +25024,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -24947,28 +25050,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -24976,28 +25079,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -25005,25 +25108,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
         <v>184</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -25031,25 +25134,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
         <v>185</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -25057,28 +25160,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -25086,28 +25189,28 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -25115,25 +25218,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -25141,25 +25244,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -25167,28 +25270,28 @@
         <v>23</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -25196,25 +25299,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -25222,25 +25325,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -25248,25 +25351,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -25274,25 +25377,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -25300,25 +25403,25 @@
         <v>28</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -25326,25 +25429,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -25352,25 +25455,25 @@
         <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -25378,28 +25481,28 @@
         <v>31</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" t="s">
         <v>196</v>
-      </c>
-      <c r="K30" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
+++ b/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F4:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
@@ -8849,13 +8849,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N349"/>
+  <dimension ref="A1:N343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E347" sqref="E347"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23315,36 +23315,6 @@
       </c>
       <c r="N343" s="20">
         <v>7.9</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>42713</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>42714</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>42715</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>42716</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>42717</v>
       </c>
     </row>
   </sheetData>

--- a/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
+++ b/Surveyability_Web/Daily_Precip_Discharge_Monitoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcclary\Documents\GitHub\SpawnerSurvey\Surveyability_Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Coho\Weather &amp; flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="225">
   <si>
     <t>down</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>SantaRosa.CFS</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>down?</t>
   </si>
 </sst>
 </file>
@@ -1819,8 +1825,8 @@
   <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F369" sqref="F369"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7597,40 +7603,136 @@
       <c r="A370" s="7">
         <v>42712</v>
       </c>
+      <c r="B370">
+        <v>1.6</v>
+      </c>
+      <c r="C370">
+        <v>0.39</v>
+      </c>
+      <c r="D370">
+        <v>0.86</v>
+      </c>
+      <c r="E370">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>42713</v>
       </c>
+      <c r="B371">
+        <v>1.04</v>
+      </c>
+      <c r="C371">
+        <v>0.35</v>
+      </c>
+      <c r="D371">
+        <v>0.41</v>
+      </c>
+      <c r="E371">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>42714</v>
       </c>
+      <c r="B372">
+        <v>2.8</v>
+      </c>
+      <c r="C372">
+        <v>1.18</v>
+      </c>
+      <c r="D372">
+        <v>0.67</v>
+      </c>
+      <c r="E372">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>42715</v>
       </c>
+      <c r="B373">
+        <v>0.68</v>
+      </c>
+      <c r="C373">
+        <v>0.38</v>
+      </c>
+      <c r="D373">
+        <v>0.4</v>
+      </c>
+      <c r="E373">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>42716</v>
       </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>42717</v>
       </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>42718</v>
       </c>
+      <c r="B376">
+        <v>0.76</v>
+      </c>
+      <c r="C376">
+        <v>0.12</v>
+      </c>
+      <c r="D376" t="s">
+        <v>208</v>
+      </c>
+      <c r="E376" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>42719</v>
+      </c>
+      <c r="B377">
+        <v>3.92</v>
+      </c>
+      <c r="C377">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D377">
+        <v>0.93</v>
+      </c>
+      <c r="E377">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,13 +8951,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N343"/>
+  <dimension ref="A1:N424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="P353" sqref="P353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22946,8 +23048,8 @@
       <c r="H335">
         <v>219</v>
       </c>
-      <c r="I335" t="s">
-        <v>0</v>
+      <c r="I335">
+        <v>20.7</v>
       </c>
       <c r="J335">
         <v>1.75</v>
@@ -22990,8 +23092,8 @@
       <c r="H336">
         <v>168</v>
       </c>
-      <c r="I336" t="s">
-        <v>0</v>
+      <c r="I336">
+        <v>20.079999999999998</v>
       </c>
       <c r="J336">
         <v>1.65</v>
@@ -23034,8 +23136,8 @@
       <c r="H337">
         <v>138</v>
       </c>
-      <c r="I337" t="s">
-        <v>0</v>
+      <c r="I337">
+        <v>19.690000000000001</v>
       </c>
       <c r="J337">
         <v>1.58</v>
@@ -23078,8 +23180,8 @@
       <c r="H338">
         <v>117</v>
       </c>
-      <c r="I338" t="s">
-        <v>0</v>
+      <c r="I338">
+        <v>19.61</v>
       </c>
       <c r="J338">
         <v>1.51</v>
@@ -23122,8 +23224,8 @@
       <c r="H339">
         <v>103</v>
       </c>
-      <c r="I339" t="s">
-        <v>0</v>
+      <c r="I339">
+        <v>19.45</v>
       </c>
       <c r="J339">
         <v>1.46</v>
@@ -23166,8 +23268,8 @@
       <c r="H340">
         <v>92</v>
       </c>
-      <c r="I340" t="s">
-        <v>0</v>
+      <c r="I340">
+        <v>19.260000000000002</v>
       </c>
       <c r="J340">
         <v>1.42</v>
@@ -23210,8 +23312,8 @@
       <c r="H341">
         <v>81</v>
       </c>
-      <c r="I341" t="s">
-        <v>0</v>
+      <c r="I341">
+        <v>19.059999999999999</v>
       </c>
       <c r="J341">
         <v>1.4</v>
@@ -23254,8 +23356,8 @@
       <c r="H342">
         <v>74</v>
       </c>
-      <c r="I342" t="s">
-        <v>0</v>
+      <c r="I342">
+        <v>18.829999999999998</v>
       </c>
       <c r="J342">
         <v>1.37</v>
@@ -23298,8 +23400,8 @@
       <c r="H343">
         <v>68</v>
       </c>
-      <c r="I343" t="s">
-        <v>0</v>
+      <c r="I343">
+        <v>18.79</v>
       </c>
       <c r="J343">
         <v>1.35</v>
@@ -23315,6 +23417,738 @@
       </c>
       <c r="N343" s="20">
         <v>7.9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>42712</v>
+      </c>
+      <c r="B344">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C344">
+        <v>146</v>
+      </c>
+      <c r="D344">
+        <v>1.72</v>
+      </c>
+      <c r="E344" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F344" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="G344">
+        <v>5.14</v>
+      </c>
+      <c r="H344">
+        <v>233</v>
+      </c>
+      <c r="I344">
+        <v>19.84</v>
+      </c>
+      <c r="J344">
+        <v>1.59</v>
+      </c>
+      <c r="K344">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="L344" s="20">
+        <v>31</v>
+      </c>
+      <c r="M344" s="20">
+        <v>24.46</v>
+      </c>
+      <c r="N344" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>42713</v>
+      </c>
+      <c r="B345">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C345">
+        <v>163</v>
+      </c>
+      <c r="D345">
+        <v>1.97</v>
+      </c>
+      <c r="E345" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F345" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="G345">
+        <v>5.67</v>
+      </c>
+      <c r="H345">
+        <v>435</v>
+      </c>
+      <c r="I345">
+        <v>22.07</v>
+      </c>
+      <c r="J345">
+        <v>2.78</v>
+      </c>
+      <c r="K345">
+        <v>5.7</v>
+      </c>
+      <c r="L345" s="20">
+        <v>87</v>
+      </c>
+      <c r="M345" s="20">
+        <v>24.38</v>
+      </c>
+      <c r="N345" s="20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>42714</v>
+      </c>
+      <c r="B346">
+        <v>9.91</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E346" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F346" s="2">
+        <v>20.59</v>
+      </c>
+      <c r="G346">
+        <v>9.32</v>
+      </c>
+      <c r="H346">
+        <v>2760</v>
+      </c>
+      <c r="I346">
+        <v>44.61</v>
+      </c>
+      <c r="J346">
+        <v>3.14</v>
+      </c>
+      <c r="K346">
+        <v>9.56</v>
+      </c>
+      <c r="L346" t="s">
+        <v>0</v>
+      </c>
+      <c r="M346" s="20">
+        <v>25.61</v>
+      </c>
+      <c r="N346" s="20">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>42715</v>
+      </c>
+      <c r="B347">
+        <v>9.14</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E347" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F347" s="2">
+        <v>11.88</v>
+      </c>
+      <c r="G347">
+        <v>6.21</v>
+      </c>
+      <c r="H347">
+        <v>671</v>
+      </c>
+      <c r="I347">
+        <v>26.64</v>
+      </c>
+      <c r="J347">
+        <v>2.71</v>
+      </c>
+      <c r="K347">
+        <v>6.79</v>
+      </c>
+      <c r="L347" t="s">
+        <v>0</v>
+      </c>
+      <c r="M347" s="20">
+        <v>25.1</v>
+      </c>
+      <c r="N347" s="20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B348">
+        <v>8.83</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F348" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="G348">
+        <v>5.56</v>
+      </c>
+      <c r="H348">
+        <v>392</v>
+      </c>
+      <c r="I348">
+        <v>23.4</v>
+      </c>
+      <c r="J348">
+        <v>2.17</v>
+      </c>
+      <c r="K348">
+        <v>6.24</v>
+      </c>
+      <c r="L348">
+        <v>160</v>
+      </c>
+      <c r="M348" s="20">
+        <v>24.81</v>
+      </c>
+      <c r="N348" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>42717</v>
+      </c>
+      <c r="D349">
+        <v>1.78</v>
+      </c>
+      <c r="E349" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F349" s="2">
+        <v>6.52</v>
+      </c>
+      <c r="G349">
+        <v>5.25</v>
+      </c>
+      <c r="H349">
+        <v>273</v>
+      </c>
+      <c r="I349">
+        <v>21.95</v>
+      </c>
+      <c r="J349">
+        <v>1.94</v>
+      </c>
+      <c r="K349">
+        <v>5.98</v>
+      </c>
+      <c r="L349">
+        <v>121</v>
+      </c>
+      <c r="M349" s="20">
+        <v>24.42</v>
+      </c>
+      <c r="N349" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>42718</v>
+      </c>
+      <c r="D350">
+        <v>1.72</v>
+      </c>
+      <c r="E350" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F350" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="G350">
+        <v>5.55</v>
+      </c>
+      <c r="H350">
+        <v>388</v>
+      </c>
+      <c r="I350">
+        <v>22</v>
+      </c>
+      <c r="J350">
+        <v>1.9</v>
+      </c>
+      <c r="K350">
+        <v>5.98</v>
+      </c>
+      <c r="L350">
+        <v>121</v>
+      </c>
+      <c r="M350" s="20">
+        <v>24.41</v>
+      </c>
+      <c r="N350" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>42719</v>
+      </c>
+      <c r="D351">
+        <v>4.2</v>
+      </c>
+      <c r="E351" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F351" s="2">
+        <v>18.13</v>
+      </c>
+      <c r="G351">
+        <v>11.59</v>
+      </c>
+      <c r="H351">
+        <v>4970</v>
+      </c>
+      <c r="I351">
+        <v>34.22</v>
+      </c>
+      <c r="J351">
+        <v>3.26</v>
+      </c>
+      <c r="K351">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="L351" t="s">
+        <v>0</v>
+      </c>
+      <c r="M351" s="20">
+        <v>25.17</v>
+      </c>
+      <c r="N351" s="20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>42720</v>
+      </c>
+      <c r="D352">
+        <v>4.01</v>
+      </c>
+      <c r="E352" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F352" s="2">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="G352">
+        <v>8.17</v>
+      </c>
+      <c r="H352">
+        <v>1570</v>
+      </c>
+      <c r="I352" t="s">
+        <v>223</v>
+      </c>
+      <c r="J352">
+        <v>3.16</v>
+      </c>
+      <c r="K352">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L352" t="s">
+        <v>224</v>
+      </c>
+      <c r="M352" s="20">
+        <v>27.21</v>
+      </c>
+      <c r="N352" s="20">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>42722</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>42728</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>42729</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>42731</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>42732</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>42733</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>42739</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>42765</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>42779</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>42787</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>42792</v>
       </c>
     </row>
   </sheetData>
